--- a/mathTransformed/HMPSTT_(2016-11-13)_42_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-11-13)_42_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>S M H S LakkalakattiRon</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>J T Jr Comp. CollegeDambal Mundaragi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -539,6 +554,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>K S S H Gajendragad</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -566,6 +586,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S Chikkamandya</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -593,6 +618,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>M S Dambal Girls High SchoolMundargi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -620,6 +650,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>S M High School Balaganur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -649,6 +684,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S GojanurShirahatti</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -678,6 +718,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S MagadiShirahatti</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -705,6 +750,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Sanjay High School HolealurRon</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -732,6 +782,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>S R E S High School SuranagiShirahatti</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -759,6 +814,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>S A V H S YarebeleriRon</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -786,6 +846,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>S S B H Ron</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -813,6 +878,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S ValageremenasaK R Pet</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -840,6 +910,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>S H B H S High School MadalagariRon</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -867,6 +942,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Govt. High School Thimmana Hosur</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -891,7 +971,8 @@
           <t>JAGANNATHA U N</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t xml:space="preserve">JAGANNATHA U </t>
         </is>
@@ -909,6 +990,11 @@
         </is>
       </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>U G H S (RMSA) DindurRon</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Gadag</t>
         </is>
@@ -937,6 +1023,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S KadiluvagiluMaddur</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -964,6 +1055,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S Kalakapur (RMSA)Ron</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -993,6 +1089,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S Soonagahalli</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Mandya South</t>
         </is>
       </c>
@@ -1020,6 +1121,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S Papanashi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1047,6 +1153,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>H C E S High School Chinchali</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1074,6 +1185,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Model High School ShanatagiriRon</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1102,6 +1218,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Nargund</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1129,6 +1250,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S HalehalliMaddur</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1156,6 +1282,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H S Goravale Mandya North</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1183,6 +1314,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S (RMSA) ChikkamannurRon</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1212,6 +1348,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S MugaliRon</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1239,6 +1380,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S Chujjala KyathanahallyK R Pet</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1266,6 +1412,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Govt Junior College K R Pet</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1293,6 +1444,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Sharadha Girls High SchoolRon</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1320,6 +1476,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>S A V H S NaregalRon</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1347,6 +1508,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>S S B H S NagendragadRon</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1374,6 +1540,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>S S H LaxmeshawarShiarahatti</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1401,6 +1572,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Shri Sangameshwar High SchoolSavadiRon</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1428,6 +1604,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>S A H S NidagundiRon</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1455,6 +1636,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Sri Jagadguru AnnadaneshwarHigh School – Mundargi</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1480,7 +1666,8 @@
           <t>SHANKARAPPA B AMBIGER</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>P P G High School Gadag</t>
         </is>
@@ -1511,6 +1698,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>M D R School HirewaddattiMundaragi</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1540,6 +1732,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Govt. High School Satanuru</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1569,6 +1766,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>Govt. Junior College Besagarahalli Maddur</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1598,6 +1800,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>G H P S KonchigeriShirahatti</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1624,6 +1831,11 @@
         </is>
       </c>
       <c r="F45" t="inlineStr">
+        <is>
+          <t>G H S HalakereRon</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Gadag</t>
         </is>

--- a/mathTransformed/HMPSTT_(2016-11-13)_42_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-11-13)_42_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,7 +971,6 @@
           <t>JAGANNATHA U N</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t xml:space="preserve">JAGANNATHA U </t>
@@ -1666,7 +1665,6 @@
           <t>SHANKARAPPA B AMBIGER</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>P P G High School Gadag</t>

--- a/mathTransformed/HMPSTT_(2016-11-13)_42_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-11-13)_42_3.xlsx
@@ -1093,7 +1093,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Mandya South</t>
+          <t>Mandya</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>P P G High School Gadag</t>
+          <t>Gadag</t>
         </is>
       </c>
     </row>
